--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Lyonnet/Pierre_Lyonnet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Lyonnet/Pierre_Lyonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Lyonnet ou Lyonet, né le 22 juillet 1708 à Maastricht et mort le 10 octobre 1789 à La Haye est un artiste, un graveur renommé et un naturaliste néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est secrétaire et traducteur (il parle au moins huit langues) pour le gouvernement des Provinces unies néerlandaises. Il reçoit d’abord une formation de juriste avant de choisir de se spécialiser dans la gravure d’histoire naturelle et de travaux de dissection.
 Il illustre la Théologie des insectes, ou démonstration des perfections de Dieu dans tout ce qui concerne les insectes (1742) de Friedrich Christian Lesser (1692-1754) et le traité sur les polypes (1744) d’Abraham Trembley (1710-1784).
@@ -545,7 +559,9 @@
           <t>Illustrations extraites du Traité anatomique de la chenille qui ronge le bois de Saule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Larve de la chenille
